--- a/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6E5810-D205-4E03-92C1-4AF57E8B57A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A255D-DA73-4D69-80C9-8693186D4DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{737F191E-E352-4EDB-857D-B815B1D69714}"/>
+    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11295" xr2:uid="{737F191E-E352-4EDB-857D-B815B1D69714}"/>
   </bookViews>
   <sheets>
     <sheet name="enemy_table" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -398,57 +401,58 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>976</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>400</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>976</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
         <v>600</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A255D-DA73-4D69-80C9-8693186D4DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57422800-E4B9-4501-B588-9E1CB8A476F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11295" xr2:uid="{737F191E-E352-4EDB-857D-B815B1D69714}"/>
   </bookViews>
@@ -99,6 +99,658 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E5FFCD-9F51-4E80-B6EC-A4B730881038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="95250"/>
+          <a:ext cx="4257675" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>敵の配置に関する説明</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>列の右から順に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>『</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>敵の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ID』『X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>座標</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>』『Y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>座標</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>』</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>になっている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>敵</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>について</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>：敵</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>　幅</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>40</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>高さ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>40</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>：敵</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>　幅</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>40   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>高さ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>40</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,7 +1053,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -454,5 +1106,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57422800-E4B9-4501-B588-9E1CB8A476F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE137F85-90DE-4FEF-BF6A-680B1FD0B2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11295" xr2:uid="{737F191E-E352-4EDB-857D-B815B1D69714}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{737F191E-E352-4EDB-857D-B815B1D69714}"/>
   </bookViews>
   <sheets>
     <sheet name="enemy_table" sheetId="1" r:id="rId1"/>
@@ -228,7 +228,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>列の右から順に</a:t>
+            <a:t>列の左から順に</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">

--- a/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE137F85-90DE-4FEF-BF6A-680B1FD0B2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1936E7F1-13DD-49AD-B741-F6D28907E701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{737F191E-E352-4EDB-857D-B815B1D69714}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{737F191E-E352-4EDB-857D-B815B1D69714}"/>
   </bookViews>
   <sheets>
     <sheet name="enemy_table" sheetId="1" r:id="rId1"/>
@@ -113,8 +113,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -130,7 +130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2962275" y="95250"/>
-          <a:ext cx="4257675" cy="1838325"/>
+          <a:ext cx="4257675" cy="1800225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -604,7 +604,119 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>：敵</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>　幅</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>40   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>高さ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>40</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
             <a:ln w="0"/>
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -621,6 +733,54 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>：敵</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
               <a:ln w="0"/>
               <a:solidFill>
@@ -634,7 +794,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>    </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
@@ -650,7 +810,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>：敵</a:t>
+            <a:t>幅</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
@@ -666,39 +826,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>　幅</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
-              <a:ln w="0"/>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="dk1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>40   </a:t>
+            <a:t>40	 </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
@@ -1050,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5414AEBC-3475-49FF-85C1-FC3B53BD1A04}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1100,6 +1228,17 @@
       </c>
       <c r="C4" s="1">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1936E7F1-13DD-49AD-B741-F6D28907E701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA19DDAD-DC44-4ECF-AA58-9329B66259D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{737F191E-E352-4EDB-857D-B815B1D69714}"/>
   </bookViews>
@@ -1178,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5414AEBC-3475-49FF-85C1-FC3B53BD1A04}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1239,6 +1239,28 @@
       </c>
       <c r="C5" s="1">
         <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C7" s="1">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA19DDAD-DC44-4ECF-AA58-9329B66259D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615EB43A-AA11-48E1-B58C-81BE9A184249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{737F191E-E352-4EDB-857D-B815B1D69714}"/>
   </bookViews>
@@ -113,8 +113,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -130,7 +130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2962275" y="95250"/>
-          <a:ext cx="4257675" cy="1800225"/>
+          <a:ext cx="4257675" cy="2047875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -827,6 +827,121 @@
               </a:effectLst>
             </a:rPr>
             <a:t>40	 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>高さ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>40</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>：敵</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>    幅</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>40   </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0" baseline="0">
@@ -1178,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5414AEBC-3475-49FF-85C1-FC3B53BD1A04}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1261,6 +1376,17 @@
       </c>
       <c r="C7" s="1">
         <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615EB43A-AA11-48E1-B58C-81BE9A184249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF99FA69-0B29-4AEA-9226-3924D8163118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{737F191E-E352-4EDB-857D-B815B1D69714}"/>
   </bookViews>
@@ -1293,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5414AEBC-3475-49FF-85C1-FC3B53BD1A04}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1383,10 +1383,21 @@
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="C8" s="1">
         <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF99FA69-0B29-4AEA-9226-3924D8163118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD30339-4198-418C-B424-FCC3EE4D73D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{737F191E-E352-4EDB-857D-B815B1D69714}"/>
   </bookViews>
@@ -1293,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5414AEBC-3475-49FF-85C1-FC3B53BD1A04}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1336,35 +1336,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>7400</v>
       </c>
       <c r="C4" s="1">
-        <v>40</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>300</v>
+        <v>7700</v>
       </c>
       <c r="C5" s="1">
-        <v>400</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>600</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -1372,31 +1372,64 @@
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="C7" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>3100</v>
+        <v>2000</v>
       </c>
       <c r="C8" s="1">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C9" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7400</v>
+      </c>
+      <c r="C10" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B11" s="1">
+        <v>3100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
         <v>3500</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C12" s="1">
         <v>700</v>
       </c>
     </row>

--- a/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
+++ b/36269_中嶋智也_個人作成用/game/data/enemy_table_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\game\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\36269_中嶋智也_個人作成用\game\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD30339-4198-418C-B424-FCC3EE4D73D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B339EBDF-E33C-4D24-A95F-CFD44C6DD4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{737F191E-E352-4EDB-857D-B815B1D69714}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{737F191E-E352-4EDB-857D-B815B1D69714}"/>
   </bookViews>
   <sheets>
     <sheet name="enemy_table" sheetId="1" r:id="rId1"/>
@@ -1293,10 +1293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5414AEBC-3475-49FF-85C1-FC3B53BD1A04}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1369,13 +1369,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="C7" s="1">
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -1383,10 +1383,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="C8" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -1394,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="C9" s="1">
         <v>600</v>
@@ -1405,21 +1405,21 @@
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>7400</v>
+        <v>2500</v>
       </c>
       <c r="C10" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
-        <v>3100</v>
+        <v>7400</v>
       </c>
       <c r="C11" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -1427,9 +1427,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="1">
+        <v>3100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
         <v>3500</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>700</v>
       </c>
     </row>
